--- a/sources/excel/接口信息.xlsx
+++ b/sources/excel/接口信息.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="44">
   <si>
     <t>ID</t>
   </si>
@@ -158,7 +159,7 @@
     <t>system/socket/all/user/sum</t>
   </si>
   <si>
-    <t>g</t>
+    <t>获取1socket在线人数</t>
   </si>
 </sst>
 </file>
@@ -572,24 +573,13 @@
       <left style="thin">
         <color rgb="FF1F2329"/>
       </left>
-      <right style="thin">
-        <color rgb="FF1F2329"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF1F2329"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF1F2329"/>
-      </left>
       <right/>
       <top style="thin">
         <color rgb="FF1F2329"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF1F2329"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -609,13 +599,24 @@
       <left style="thin">
         <color rgb="FF1F2329"/>
       </left>
+      <right style="thin">
+        <color rgb="FF1F2329"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF1F2329"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF1F2329"/>
+      </left>
       <right/>
       <top style="thin">
         <color rgb="FF1F2329"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF1F2329"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -887,24 +888,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1230,10 +1231,10 @@
   </sheetPr>
   <dimension ref="A1:I483"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="$A14:$XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="12.75"/>
@@ -1431,32 +1432,32 @@
       <c r="F8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="10" t="s">
         <v>30</v>
       </c>
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="8">
+      <c r="A9" s="11">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="11"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="3">
@@ -1472,13 +1473,13 @@
       <c r="E10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="11"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="3">
@@ -1494,13 +1495,13 @@
       <c r="E11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="11"/>
+      <c r="H11" s="9"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="3">
@@ -1516,13 +1517,13 @@
       <c r="E12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="11"/>
+      <c r="H12" s="9"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="3">
@@ -1538,13 +1539,13 @@
       <c r="E13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="11"/>
+      <c r="H13" s="9"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="3">
@@ -1560,13 +1561,13 @@
       <c r="E14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="11"/>
+      <c r="H14" s="9"/>
     </row>
     <row r="15" ht="19" customHeight="1" spans="1:9">
       <c r="A15" s="3"/>
@@ -1627,9 +1628,7 @@
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="6" t="s">
-        <v>43</v>
-      </c>
+      <c r="D20" s="6"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="6"/>
@@ -4837,17 +4836,102 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:B14 B16:B264">
       <formula1>"CDP,DESK,玩安卓,百度翻译,gtee,芒果测试平台,智投"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C14 C15:C483">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2:C483">
       <formula1>"登录,首页,小红书实时看板,小红书报数助手,报数助手,批量建计划,个人中心,企业管理,达人资源库"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E14 E15:E264">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E264">
       <formula1>"WEB,安卓,微信小程序"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F14 F15:F264">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2:F264">
       <formula1>"GET,POST,PUT,DELETE,OPTIONS,DEAD,PATCH"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="1"/>
+  <cols>
+    <col min="2" max="2" width="78.7142857142857" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="19" customHeight="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" ht="36" spans="1:8">
+      <c r="A2" s="3">
+        <v>131</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="9"/>
+    </row>
+  </sheetData>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2">
+      <formula1>"CDP,DESK,玩安卓,百度翻译,gtee,芒果测试平台,智投"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C2">
+      <formula1>"登录,首页,小红书实时看板,小红书报数助手,报数助手,批量建计划,个人中心,企业管理,达人资源库"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2">
+      <formula1>"WEB,安卓,微信小程序"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2">
+      <formula1>"GET,POST,PUT,DELETE,OPTIONS,DEAD,PATCH"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/sources/excel/接口信息.xlsx
+++ b/sources/excel/接口信息.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13380"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -1092,18 +1092,18 @@
   <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="23.8888888888889" customWidth="1"/>
-    <col min="3" max="3" width="30.7777777777778" customWidth="1"/>
-    <col min="4" max="4" width="18.8888888888889" customWidth="1"/>
-    <col min="5" max="5" width="10.4444444444444" customWidth="1"/>
-    <col min="6" max="6" width="8.55555555555556" customWidth="1"/>
+    <col min="2" max="2" width="23.8857142857143" customWidth="1"/>
+    <col min="3" max="3" width="30.7809523809524" customWidth="1"/>
+    <col min="4" max="4" width="18.8857142857143" customWidth="1"/>
+    <col min="5" max="5" width="10.447619047619" customWidth="1"/>
+    <col min="6" max="6" width="8.55238095238095" customWidth="1"/>
     <col min="7" max="7" width="46.3333333333333" customWidth="1"/>
-    <col min="8" max="8" width="6.77777777777778" customWidth="1"/>
+    <col min="8" max="8" width="6.78095238095238" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19" customHeight="1" spans="1:9">
@@ -1942,8 +1942,11 @@
       <c r="I73" s="8"/>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B73">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+      <formula1>"百度,芒果mock"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B73">
       <formula1>"百度,gitee,芒果测试平台,芒果mock"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C73">
